--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0013-001 - Admin SLN melakukan Modul Mapping.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0013-001 - Admin SLN melakukan Modul Mapping.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE814489-0CCF-4D35-B91F-AF72D256D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B346C282-1C0C-4DB1-8CA0-E5BA1BFFCD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0216" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0013" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -101,9 +101,6 @@
     <t>Mapping</t>
   </si>
   <si>
-    <t>DGS-231</t>
-  </si>
-  <si>
     <t>Admin SLN melakukan Modul Mapping</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
  Tampilan awal yang diusulkan adalah sebagai berikut:
  Selanjutnya untuk Tampilan pada saat Add Kategori adalah sebagai berikut:
  · Berhasil melakukan add</t>
+  </si>
+  <si>
+    <t>SCD0013-001</t>
   </si>
 </sst>
 </file>
@@ -519,13 +519,13 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -604,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="12">
         <v>52326</v>
